--- a/Teaching/2018-2019/PS web page/results/Tabel_Prob_Stat_2018_2019_v3.xlsx
+++ b/Teaching/2018-2019/PS web page/results/Tabel_Prob_Stat_2018_2019_v3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{B2773D23-1FCF-4715-B066-070BB30C0048}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{40DBE520-C6DB-4B32-A70A-33788BD41013}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{B2773D23-1FCF-4715-B066-070BB30C0048}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2FE99E1F-B929-439B-855A-9C84D01CCAE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centralizator" sheetId="1" r:id="rId1"/>
@@ -2714,7 +2714,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2742,362 +2742,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3461,12 +3105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,7 +3165,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3581,7 +3224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3633,7 +3276,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3685,7 +3328,7 @@
         <v>4.5041666666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -3737,7 +3380,7 @@
         <v>6.2275</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -3789,7 +3432,7 @@
         <v>4.543333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3841,7 +3484,7 @@
         <v>4.0396428571428569</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3893,7 +3536,7 @@
         <v>4.7873809523809525</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3945,7 +3588,7 @@
         <v>6.1024999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -3997,7 +3640,7 @@
         <v>6.4102380952380953</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4049,7 +3692,7 @@
         <v>6.2120238095238092</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -4101,7 +3744,7 @@
         <v>4.5170238095238098</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -4153,7 +3796,7 @@
         <v>5.5733333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -4205,7 +3848,7 @@
         <v>2.4066666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -4257,7 +3900,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -4312,7 +3955,7 @@
         <v>6.6276190476190475</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>129</v>
       </c>
@@ -4364,7 +4007,7 @@
         <v>8.0369047619047631</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -4416,7 +4059,7 @@
         <v>4.8413095238095236</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -4468,7 +4111,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -4520,7 +4163,7 @@
         <v>5.9089285714285715</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -4572,7 +4215,7 @@
         <v>5.4841666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -4624,7 +4267,7 @@
         <v>5.7442857142857147</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -4676,7 +4319,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>130</v>
       </c>
@@ -4728,7 +4371,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -4780,7 +4423,7 @@
         <v>4.7542857142857144</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -4832,7 +4475,7 @@
         <v>6.8060714285714292</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -4884,7 +4527,7 @@
         <v>6.4820238095238096</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -4936,7 +4579,7 @@
         <v>6.8041666666666671</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -4988,7 +4631,7 @@
         <v>1.4296428571428572</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -5040,7 +4683,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -5092,7 +4735,7 @@
         <v>2.7082142857142859</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -5144,7 +4787,7 @@
         <v>4.6457142857142859</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -5196,7 +4839,7 @@
         <v>6.6024999999999991</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -5248,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -5300,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -5352,7 +4995,7 @@
         <v>6.5011904761904757</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -5407,7 +5050,7 @@
         <v>9.5872619047619043</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -5459,7 +5102,7 @@
         <v>6.5636904761904757</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -5511,7 +5154,7 @@
         <v>6.2160714285714285</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>131</v>
       </c>
@@ -5563,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -5615,7 +5258,7 @@
         <v>6.5013095238095229</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -5667,7 +5310,7 @@
         <v>6.7507142857142854</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -5719,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -5771,7 +5414,7 @@
         <v>8.137261904761905</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -5823,7 +5466,7 @@
         <v>6.7089285714285722</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -5875,7 +5518,7 @@
         <v>6.0610714285714291</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -5927,7 +5570,7 @@
         <v>5.9433333333333334</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
@@ -5979,7 +5622,7 @@
         <v>4.0886904761904761</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -6031,7 +5674,7 @@
         <v>6.1929761904761893</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -6083,7 +5726,7 @@
         <v>4.8291666666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -6112,7 +5755,7 @@
       </c>
       <c r="H51">
         <f>Proiect!C51</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I51">
         <f>SUMPRODUCT(Examen!C51:H51,Weights!$B$8:$G$8)</f>
@@ -6132,10 +5775,10 @@
       </c>
       <c r="Q51">
         <f>MIN(10,1+0.6*(C51/(10*SUM(Weights!$B$2:$I$2))+D51/(10*SUM(Weights!$B$3:$H$3))+E51/(10*SUM(Weights!$B$4:$H$4))+F51/(10*SUM(Weights!$B$5:$H$5))+G51/(10*SUM(Weights!$B$6:$G$6)))+I51/60*7+H51/100+M51)</f>
-        <v>5.9408333333333339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.0408333333333335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -6187,7 +5830,7 @@
         <v>4.5080952380952386</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
@@ -6239,7 +5882,7 @@
         <v>1.1875</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -6291,7 +5934,7 @@
         <v>3.4602380952380951</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -6343,7 +5986,7 @@
         <v>5.1220238095238093</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -6395,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -6447,7 +6090,7 @@
         <v>5.559047619047619</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>61</v>
       </c>
@@ -6502,7 +6145,7 @@
         <v>8.8855952380952381</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -6554,7 +6197,7 @@
         <v>3.4085714285714284</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -6606,7 +6249,7 @@
         <v>5.4869047619047624</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -6658,7 +6301,7 @@
         <v>7.4234523809523809</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -6710,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -6762,7 +6405,7 @@
         <v>2.8666666666666667</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -6814,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -6843,7 +6486,7 @@
       </c>
       <c r="H65">
         <f>Proiect!C65</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I65">
         <f>SUMPRODUCT(Examen!C65:H65,Weights!$B$8:$G$8)</f>
@@ -6851,7 +6494,7 @@
       </c>
       <c r="J65" s="9">
         <f>IF(I65&gt;O$2,MAX(4,ROUND(MIN(10,1+0.6*(C65/(10*SUM(Weights!$B$2:$I$2))+D65/(10*SUM(Weights!$B$3:$H$3))+E65/(10*SUM(Weights!$B$4:$H$4))+F65/(10*SUM(Weights!$B$5:$H$5))+G65/(10*SUM(Weights!$B$6:$G$6)))+I65/60*7+H65/100+M65),0)),IF(I65=0,"Absent",4))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L65">
         <f>C65/(10*SUM(Weights!$B$2:$I$2))+D65/(10*SUM(Weights!$B$3:$H$3))+E65/(10*SUM(Weights!$B$4:$H$4))+F65/(10*SUM(Weights!$B$5:$H$5))+G65/(10*SUM(Weights!$B$6:$G$6))</f>
@@ -6859,14 +6502,14 @@
       </c>
       <c r="N65">
         <f>MAX(4,ROUND(MIN(10,1+0.6*(C65/(10*SUM(Weights!$B$2:$I$2))+D65/(10*SUM(Weights!$B$3:$H$3))+E65/(10*SUM(Weights!$B$4:$H$4))+F65/(10*SUM(Weights!$B$5:$H$5))+G65/(10*SUM(Weights!$B$6:$G$6)))+I65/60*7+H65/100 + M65),0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q65">
         <f>MIN(10,1+0.6*(C65/(10*SUM(Weights!$B$2:$I$2))+D65/(10*SUM(Weights!$B$3:$H$3))+E65/(10*SUM(Weights!$B$4:$H$4))+F65/(10*SUM(Weights!$B$5:$H$5))+G65/(10*SUM(Weights!$B$6:$G$6)))+I65/60*7+H65/100+M65)</f>
-        <v>5.960238095238096</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.7602380952380958</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -6918,7 +6561,7 @@
         <v>2.7925000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
@@ -6970,7 +6613,7 @@
         <v>5.9555952380952384</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
@@ -7022,7 +6665,7 @@
         <v>5.5909523809523805</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -7074,7 +6717,7 @@
         <v>3.1275000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -7126,7 +6769,7 @@
         <v>1.2571428571428571</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
@@ -7178,7 +6821,7 @@
         <v>5.0569047619047627</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -7230,7 +6873,7 @@
         <v>2.3316666666666666</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
@@ -7282,7 +6925,7 @@
         <v>5.8959523809523811</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
@@ -7334,7 +6977,7 @@
         <v>3.7565476190476188</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -7386,7 +7029,7 @@
         <v>5.9291666666666663</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
@@ -7438,7 +7081,7 @@
         <v>4.8241666666666667</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
@@ -7490,7 +7133,7 @@
         <v>5.4514285714285711</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
@@ -7542,7 +7185,7 @@
         <v>5.3028571428571425</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
@@ -7594,7 +7237,7 @@
         <v>4.507142857142858</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
@@ -7646,7 +7289,7 @@
         <v>4.512380952380953</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
@@ -7698,7 +7341,7 @@
         <v>6.6697619047619048</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
@@ -7753,7 +7396,7 @@
         <v>6.3417857142857148</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
@@ -7805,7 +7448,7 @@
         <v>2.7461904761904758</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
@@ -7857,7 +7500,7 @@
         <v>3.9182142857142854</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
@@ -7909,7 +7552,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>89</v>
       </c>
@@ -9521,7 +9164,7 @@
         <v>2.9833333333333334</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>140</v>
       </c>
@@ -9574,49 +9217,43 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J117" xr:uid="{B0F39B5D-5942-4108-8793-C6414B5853E2}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="244"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J117" xr:uid="{B0F39B5D-5942-4108-8793-C6414B5853E2}"/>
   <conditionalFormatting sqref="I2:I117">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>23.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>13.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>23.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>$O$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>$O$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>$O$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>$O$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J117">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Absent"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N117">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21800,12 +21437,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41D24B2-A90D-468C-A9DF-709D9E703207}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="32" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21824,7 +21460,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -21832,7 +21468,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -21840,7 +21476,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -21851,7 +21487,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -21862,7 +21498,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -21870,7 +21506,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -21878,7 +21514,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -21886,7 +21522,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -21894,7 +21530,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -21902,7 +21538,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -21913,7 +21549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -21921,7 +21557,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -21929,7 +21565,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -21937,7 +21573,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -21945,7 +21581,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -21953,7 +21589,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>129</v>
       </c>
@@ -21964,7 +21600,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -21975,7 +21611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -21983,7 +21619,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -21991,7 +21627,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -21999,7 +21635,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -22007,7 +21643,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -22015,7 +21651,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>130</v>
       </c>
@@ -22023,7 +21659,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -22031,7 +21667,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -22042,7 +21678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -22050,7 +21686,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -22061,7 +21697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -22069,7 +21705,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -22077,7 +21713,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -22085,7 +21721,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -22093,7 +21729,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -22101,7 +21737,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -22109,7 +21745,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -22117,7 +21753,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -22128,7 +21764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -22139,7 +21775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -22150,7 +21786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -22158,7 +21794,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>131</v>
       </c>
@@ -22166,7 +21802,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -22174,7 +21810,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -22182,7 +21818,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -22190,7 +21826,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -22201,7 +21837,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -22209,7 +21845,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -22217,7 +21853,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -22225,7 +21861,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
@@ -22233,7 +21869,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -22241,7 +21877,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -22249,7 +21885,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -22257,10 +21893,10 @@
         <v>242</v>
       </c>
       <c r="C51">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -22268,7 +21904,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
@@ -22276,7 +21912,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -22287,7 +21923,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -22295,7 +21931,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -22303,7 +21939,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -22311,7 +21947,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -22322,7 +21958,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -22330,7 +21966,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -22338,7 +21974,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -22349,7 +21985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -22357,7 +21993,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -22365,7 +22001,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -22373,15 +22009,18 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B65">
         <v>243</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -22389,7 +22028,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
@@ -22397,7 +22036,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
@@ -22405,7 +22044,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -22413,7 +22052,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -22421,7 +22060,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
@@ -22429,7 +22068,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -22437,7 +22076,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
@@ -22445,7 +22084,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
@@ -22453,7 +22092,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -22464,7 +22103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
@@ -22472,7 +22111,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
@@ -22480,7 +22119,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
@@ -22488,7 +22127,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
@@ -22496,7 +22135,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
@@ -22504,7 +22143,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
@@ -22512,7 +22151,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
@@ -22520,7 +22159,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
@@ -22528,7 +22167,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
@@ -22536,7 +22175,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
@@ -22544,7 +22183,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
@@ -22826,13 +22465,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C116" xr:uid="{9966C626-7BD5-4C72-ABE1-E49912828E4D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="244"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C116" xr:uid="{9966C626-7BD5-4C72-ABE1-E49912828E4D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
